--- a/docs/Examples/Data_Input/Glass_input_example.xlsx
+++ b/docs/Examples/Data_Input/Glass_input_example.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Data_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CFDAE6-6E1E-485A-BA90-4E2570486736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9BF7A7-2636-4708-A064-347B9B96B69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" xr2:uid="{F66860D5-2E2E-477E-B466-984D5BC64F28}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" activeTab="1" xr2:uid="{F66860D5-2E2E-477E-B466-984D5BC64F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Glass_input" sheetId="1" r:id="rId1"/>
+    <sheet name="Glass_Ol_input" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -211,6 +212,60 @@
   </si>
   <si>
     <t>P2O5</t>
+  </si>
+  <si>
+    <t>SiO2_Liq</t>
+  </si>
+  <si>
+    <t>Na2O_Liq</t>
+  </si>
+  <si>
+    <t>K2O_Liq</t>
+  </si>
+  <si>
+    <t>FeOt_Liq</t>
+  </si>
+  <si>
+    <t>Cr2O3_Liq</t>
+  </si>
+  <si>
+    <t>MnO_Liq</t>
+  </si>
+  <si>
+    <t>CaO_Liq</t>
+  </si>
+  <si>
+    <t>TiO2_Liq</t>
+  </si>
+  <si>
+    <t>MgO_Liq</t>
+  </si>
+  <si>
+    <t>Al2O3_Liq</t>
+  </si>
+  <si>
+    <t>P2O5_Liq</t>
+  </si>
+  <si>
+    <t>MgO_Ol</t>
+  </si>
+  <si>
+    <t>SiO2_Ol</t>
+  </si>
+  <si>
+    <t>FeO_Ol</t>
+  </si>
+  <si>
+    <t>Al2O3_Ol</t>
+  </si>
+  <si>
+    <t>CaO_Ol</t>
+  </si>
+  <si>
+    <t>MnO_Ol</t>
+  </si>
+  <si>
+    <t>NiO_Ol</t>
   </si>
 </sst>
 </file>
@@ -241,12 +296,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -272,13 +339,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5489384-0FE6-4217-AB9E-7B709BB99D91}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2493,4 +2567,1433 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637CC35-D6A0-4178-A836-86E4BAA0248A}">
+  <dimension ref="A1:S46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="12" width="8.7265625" style="8"/>
+    <col min="13" max="19" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>50.822000000000003</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="E2" s="7">
+        <v>13.339</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.252</v>
+      </c>
+      <c r="H2" s="7">
+        <v>11.356</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.056</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="K2" s="7">
+        <v>13.234999999999999</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="M2" s="5">
+        <v>40.676099999999998</v>
+      </c>
+      <c r="N2" s="5">
+        <v>39.503349999999998</v>
+      </c>
+      <c r="O2" s="5">
+        <v>19.94265</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2.7050000000000001E-2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.24615000000000001</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.2903</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.19134999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>50.607999999999997</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.597</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E3" s="7">
+        <v>13.587999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10.968999999999999</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="J3" s="7">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="K3" s="7">
+        <v>13.397</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="M3" s="5">
+        <v>40.164099999999998</v>
+      </c>
+      <c r="N3" s="5">
+        <v>39.264850000000003</v>
+      </c>
+      <c r="O3" s="5">
+        <v>21.203749999999999</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.23895</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.29335</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>50.427</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.577</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11.222</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.081</v>
+      </c>
+      <c r="J4" s="7">
+        <v>6.516</v>
+      </c>
+      <c r="K4" s="7">
+        <v>13.276</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <v>41.776699999999998</v>
+      </c>
+      <c r="N4" s="5">
+        <v>39.36</v>
+      </c>
+      <c r="O4" s="5">
+        <v>18.144200000000001</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.24260000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>50.01</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>13.77</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11.177</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.129</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="K5" s="7">
+        <v>13.385</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>41.939300000000003</v>
+      </c>
+      <c r="N5" s="5">
+        <v>39.273049999999998</v>
+      </c>
+      <c r="O5" s="5">
+        <v>18.171500000000002</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.26455000000000001</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.24030000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>49.588000000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.593</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13.099</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10.832000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6.4589999999999996</v>
+      </c>
+      <c r="K6" s="7">
+        <v>13.12</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="M6" s="5">
+        <v>40.54345</v>
+      </c>
+      <c r="N6" s="5">
+        <v>39.106650000000002</v>
+      </c>
+      <c r="O6" s="5">
+        <v>19.302700000000002</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.25095000000000001</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.18229999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>50.283000000000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.66</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>13.539</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11.08</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6.5330000000000004</v>
+      </c>
+      <c r="K7" s="7">
+        <v>13.324999999999999</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M7" s="5">
+        <v>40.978400000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>39.15005</v>
+      </c>
+      <c r="O7" s="5">
+        <v>18.877300000000002</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3.175E-2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.19255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>50.317</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E8" s="7">
+        <v>13.818</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10.962</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.093</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6.476</v>
+      </c>
+      <c r="K8" s="7">
+        <v>13.333</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>40.565100000000001</v>
+      </c>
+      <c r="N8" s="5">
+        <v>39.172150000000002</v>
+      </c>
+      <c r="O8" s="5">
+        <v>19.95805</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.6849999999999999E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.24975</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.17860000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>50.49</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="E9" s="7">
+        <v>13.316000000000001</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10.885999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6.484</v>
+      </c>
+      <c r="K9" s="7">
+        <v>13.222</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="M9" s="5">
+        <v>38.077300000000001</v>
+      </c>
+      <c r="N9" s="5">
+        <v>38.667700000000004</v>
+      </c>
+      <c r="O9" s="5">
+        <v>22.890450000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>49.716999999999999</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13.488</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10.69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.012</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="K10" s="7">
+        <v>12.874000000000001</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M10" s="5">
+        <v>40.738750000000003</v>
+      </c>
+      <c r="N10" s="5">
+        <v>38.967599999999997</v>
+      </c>
+      <c r="O10" s="5">
+        <v>19.101649999999999</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2.6849999999999999E-2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.25435000000000002</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.2656</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.19894999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>50.014000000000003</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10.976000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="K11" s="7">
+        <v>13.061999999999999</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>40.401000000000003</v>
+      </c>
+      <c r="N11" s="5">
+        <v>39.314399999999999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>20.1126</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.19964999999999999</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.2702</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.28944999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>49.948</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13.64</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10.865</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="J12" s="7">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="K12" s="7">
+        <v>13.023999999999999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>39.6479</v>
+      </c>
+      <c r="N12" s="5">
+        <v>39.1355</v>
+      </c>
+      <c r="O12" s="5">
+        <v>20.7438</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.2394</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.19139999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>50.198</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="E13" s="7">
+        <v>13.529</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H13" s="7">
+        <v>11.074</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="K13" s="7">
+        <v>13.301</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.151</v>
+      </c>
+      <c r="M13" s="5">
+        <v>39.6479</v>
+      </c>
+      <c r="N13" s="5">
+        <v>39.1355</v>
+      </c>
+      <c r="O13" s="5">
+        <v>20.7438</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.2394</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.19139999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <v>50.850999999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13.602</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11.109</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6.4989999999999997</v>
+      </c>
+      <c r="K14" s="7">
+        <v>13.378</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M14" s="5">
+        <v>40.134500000000003</v>
+      </c>
+      <c r="N14" s="5">
+        <v>39.671999999999997</v>
+      </c>
+      <c r="O14" s="5">
+        <v>20.792400000000001</v>
+      </c>
+      <c r="P14" s="5">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.2964</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.20080000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
+        <v>50.704999999999998</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>13.632</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11.179</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.069</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6.524</v>
+      </c>
+      <c r="K15" s="7">
+        <v>13.218999999999999</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="M15" s="5">
+        <v>40.134500000000003</v>
+      </c>
+      <c r="N15" s="5">
+        <v>39.671999999999997</v>
+      </c>
+      <c r="O15" s="5">
+        <v>20.792400000000001</v>
+      </c>
+      <c r="P15" s="5">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.2964</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.20080000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
+        <v>49.801000000000002</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="E16" s="7">
+        <v>13.14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10.75</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6.319</v>
+      </c>
+      <c r="K16" s="7">
+        <v>13.055999999999999</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="M16" s="5">
+        <v>41.053800000000003</v>
+      </c>
+      <c r="N16" s="5">
+        <v>39.542499999999997</v>
+      </c>
+      <c r="O16" s="5">
+        <v>19.826699999999999</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2.63E-2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
+        <v>50.594000000000001</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.573</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12.859</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11.090999999999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6.3470000000000004</v>
+      </c>
+      <c r="K17" s="7">
+        <v>13.428000000000001</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>41.9557</v>
+      </c>
+      <c r="N17" s="5">
+        <v>39.415900000000001</v>
+      </c>
+      <c r="O17" s="5">
+        <v>18.282699999999998</v>
+      </c>
+      <c r="P17" s="5">
+        <v>3.0349999999999999E-2</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.26365</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.19205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>